--- a/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>515760</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>华夏中证浙江国资创新发展ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.12</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.57</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>004668</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>建信鑫泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.05</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>97.86</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.61</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>004669</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>建信鑫泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.98</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>98.41</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004668</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>建信鑫泽回报灵活配置混合A</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>43.62</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004669</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建信鑫泽回报灵活配置混合C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.62</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004668</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信鑫泽回报灵活配置混合A</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.71</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004669</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信鑫泽回报灵活配置混合C</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.71</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009263</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝红利精选混合A</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010841</t>
+          <t>515760</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝红利精选混合C</t>
+          <t>华夏中证浙江国资创新发展ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001244</t>
+          <t>004668</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+          <t>建信鑫泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>56.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006104</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>004669</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>建信鑫泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>97.42</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>56.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>009263</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>华宝红利精选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1136,15 +1366,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>91.12</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>006104</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>010841</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>华宝红利精选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1714,4 +1715,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2160,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,17 +2172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2191,14 +2212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3672</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2207,14 +2250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -2223,14 +2288,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6</v>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2239,13 +2326,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2635,7 +2636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2646,17 +2647,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2666,14 +2687,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.9</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2682,14 +2725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2698,14 +2763,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2714,14 +2801,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6</v>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2730,13 +2839,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2920,7 +2921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2931,17 +2932,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2951,14 +2972,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.23</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2967,14 +3010,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.9</v>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2983,14 +3048,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -2999,14 +3086,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.11</v>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3015,14 +3124,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6</v>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3031,13 +3162,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.22</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.9</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8383</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,7 +1506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1679,7 +1980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2115,7 +2416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2361,7 +2662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2949,7 +3250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600023-浙能电力.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.35</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.22</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.9</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.27</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -616,7 +633,879 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004668</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004669</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3691</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015838</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发招利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>49.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015839</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发招利混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1222,7 +2111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1506,7 +2395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1980,7 +2869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2416,7 +3305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2662,7 +3551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3248,440 +4137,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2176</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515760</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1137</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1013</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0481</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004668</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信鑫泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>43.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004669</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>建信鑫泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>43.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>